--- a/war/WEB-INF/views/admin/ESets.xlsx
+++ b/war/WEB-INF/views/admin/ESets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="180" windowWidth="19416" windowHeight="11016" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Top_Level_Categories" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1142">
   <si>
     <t>Top Level Categories</t>
   </si>
@@ -3001,27 +3001,9 @@
     <t xml:space="preserve">Thousand Years Apparel </t>
   </si>
   <si>
-    <t>What's New</t>
-  </si>
-  <si>
-    <t>What's Hot</t>
-  </si>
-  <si>
     <t>Headline Worthy</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/thetruthergirls</t>
-  </si>
-  <si>
-    <t>The Truther Girls</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/TheJonathankleck</t>
-  </si>
-  <si>
-    <t>Jonathan Kleck</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/TheXFactorUSA</t>
   </si>
   <si>
@@ -3076,54 +3058,18 @@
     <t>Artisan News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/wtaetv</t>
-  </si>
-  <si>
-    <t>WTAE Action News</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/wmurtv</t>
-  </si>
-  <si>
-    <t>WMUR News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/koattv</t>
   </si>
   <si>
     <t>KOAT Action News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/4029tv</t>
-  </si>
-  <si>
-    <t>4029 News</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/kccitv</t>
-  </si>
-  <si>
-    <t>KCCI News</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/ketvtv</t>
-  </si>
-  <si>
-    <t>KETV News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/kcratv</t>
   </si>
   <si>
     <t>KCRA 3 HD News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/wapttv</t>
-  </si>
-  <si>
-    <t>WAPT 16 News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/kmbctv</t>
   </si>
   <si>
@@ -3142,42 +3088,18 @@
     <t>WYFF 4 News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/kitvtv</t>
-  </si>
-  <si>
-    <t>KITV 4 News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/WCVBtv</t>
   </si>
   <si>
     <t>KCVB Boston News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/ksbwtv</t>
-  </si>
-  <si>
-    <t>KSBW News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/wgaltv</t>
   </si>
   <si>
     <t>WGAL 8</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/wmtwtv</t>
-  </si>
-  <si>
-    <t>WMTW 8</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/WXIItv</t>
-  </si>
-  <si>
-    <t>WXII 12 News</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/wdsutv</t>
   </si>
   <si>
@@ -3202,21 +3124,6 @@
     <t>12 News</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/wbal</t>
-  </si>
-  <si>
-    <t>WBAL 11 Baltimore</t>
-  </si>
-  <si>
-    <t>KOCO 5 Oklahoma</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/wptz</t>
-  </si>
-  <si>
-    <t>WPTZ 5 HD</t>
-  </si>
-  <si>
     <t>Epic Meal Time</t>
   </si>
   <si>
@@ -3226,9 +3133,6 @@
     <t>Up &amp; Coming Musicians</t>
   </si>
   <si>
-    <t>NBA Highlights</t>
-  </si>
-  <si>
     <t>Glamorous Lifestyle</t>
   </si>
   <si>
@@ -3239,13 +3143,319 @@
   </si>
   <si>
     <t>Don't miss out on the most talked about topics!</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/BillboardClassic</t>
+  </si>
+  <si>
+    <t>Billboard Classic</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/CelineDionVEVO</t>
+  </si>
+  <si>
+    <t>Celine Dion</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/IncubusVEVO</t>
+  </si>
+  <si>
+    <t>Incubus</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/KidRockVideos</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/RKellyVEVO</t>
+  </si>
+  <si>
+    <t>R.Kelly</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/michellebranchtv</t>
+  </si>
+  <si>
+    <t>Michelle Branch</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/TheDifferentFeeling</t>
+  </si>
+  <si>
+    <t>Trance &amp; Progressive</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/RhinoEntertainment</t>
+  </si>
+  <si>
+    <t>Rhino Entertainment</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/lilcdawg</t>
+  </si>
+  <si>
+    <t>Cathy Nguyen</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/nqtv</t>
+  </si>
+  <si>
+    <t>Remi Gaillard</t>
+  </si>
+  <si>
+    <t>Kid Rock Videos</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/102196543</t>
+  </si>
+  <si>
+    <t>Tiny Facts</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/KJ92508</t>
+  </si>
+  <si>
+    <t>Light Show</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/officialflo</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/smosh</t>
+  </si>
+  <si>
+    <t>Smosh</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/freddiew</t>
+  </si>
+  <si>
+    <t>Freddie W</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/monmonsnowSeason3</t>
+  </si>
+  <si>
+    <t>Monmonsnow</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/Battlefield</t>
+  </si>
+  <si>
+    <t>Battlefield 3</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/TheXFactorUK</t>
+  </si>
+  <si>
+    <t>The X Factor UK</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/SMTOWN</t>
+  </si>
+  <si>
+    <t>SM Town</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/SesameStreet</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/UberHaxorNova</t>
+  </si>
+  <si>
+    <t>Gefilte Fish</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/thelonelyisland</t>
+  </si>
+  <si>
+    <t>The Lonely Island</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/SelGomez</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/EAFrance</t>
+  </si>
+  <si>
+    <t>EA France</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/Tobuscus</t>
+  </si>
+  <si>
+    <t>Tobuscus</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/Gonzossm</t>
+  </si>
+  <si>
+    <t>Gonzossm</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/kidrauhl</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/TobyGames</t>
+  </si>
+  <si>
+    <t>Toby Games</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/gamespot</t>
+  </si>
+  <si>
+    <t>GameSpot</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/TheMediaCows</t>
+  </si>
+  <si>
+    <t>Media Cows</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/AmazingFilms247</t>
+  </si>
+  <si>
+    <t>2 Bucks</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/TheSyndicateProject</t>
+  </si>
+  <si>
+    <t>The Syndicated Project</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/MrBochChoi</t>
+  </si>
+  <si>
+    <t>MrBochChoi</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/SSoHPKC</t>
+  </si>
+  <si>
+    <t>Team Silverback</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/progammer119</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/HumzaProductions</t>
+  </si>
+  <si>
+    <t>Humza Productions</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/jamesrfarr</t>
+  </si>
+  <si>
+    <t>Farr, From Home</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/LilHittelVideos</t>
+  </si>
+  <si>
+    <t>AH Media</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/zeldaxlove64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina Grimmie </t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/12345djbridger</t>
+  </si>
+  <si>
+    <t>Britian's Got Talent</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/ignoramusky</t>
+  </si>
+  <si>
+    <t>Ignor-a-Musky</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/EmeliSandeVEVO</t>
+  </si>
+  <si>
+    <t>Emeli Sande VEVO</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/NintendoCapriSun</t>
+  </si>
+  <si>
+    <t>Nintendo  Capri Sun</t>
+  </si>
+  <si>
+    <t>Top VEVO Music</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/comedycentral</t>
+  </si>
+  <si>
+    <t>Comedy Central</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/short334</t>
+  </si>
+  <si>
+    <t>Mr. Comedy Central</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/maximotv</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>R.Kelly VEVO</t>
+  </si>
+  <si>
+    <t>Celine Dion VEVO</t>
+  </si>
+  <si>
+    <t>Incubus VEVO</t>
+  </si>
+  <si>
+    <t>Are You the Next Superstar?</t>
+  </si>
+  <si>
+    <t>Newest Channels</t>
+  </si>
+  <si>
+    <t>Most Viewed Channels</t>
+  </si>
+  <si>
+    <t>The most popular VEVO music channels all in one place</t>
+  </si>
+  <si>
+    <t>All your favorite talent show moments!</t>
+  </si>
+  <si>
+    <t>Farr From Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3333,13 +3543,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3358,7 +3561,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="448">
+  <cellStyleXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3807,8 +4010,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3865,18 +4090,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="448">
+  <cellStyles count="470">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4323,6 +4540,28 @@
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4805,11 +5044,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15.6"/>
   <cols>
@@ -4980,7 +5217,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>992</v>
+        <v>1137</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>749</v>
@@ -4996,15 +5233,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="29" t="s">
-        <v>1068</v>
+      <c r="A24" s="9" t="s">
+        <v>1036</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>752</v>
@@ -5012,7 +5249,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>753</v>
@@ -5028,7 +5265,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>755</v>
@@ -5052,7 +5289,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>993</v>
+        <v>1138</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>775</v>
@@ -5060,10 +5297,26 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1071</v>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -5080,9 +5333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="15.6"/>
   <cols>
@@ -5096,7 +5347,7 @@
     <col min="8" max="8" width="19.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.19921875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="13.796875" style="1"/>
   </cols>
   <sheetData>
@@ -5167,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>992</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5192,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>993</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5215,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5233,8 +5484,8 @@
       <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>734</v>
+      <c r="K5" s="9" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5253,7 +5504,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1070</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5271,8 +5522,8 @@
       <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>1066</v>
+      <c r="K7" s="5" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5290,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>738</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5306,7 +5557,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5322,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5337,7 +5588,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>740</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5352,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>1068</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5366,7 +5617,9 @@
       <c r="J13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="9" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
@@ -5379,7 +5632,9 @@
       <c r="J14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="9" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="C15" s="5"/>
@@ -5510,7 +5765,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5521,20 +5775,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ81"/>
+  <dimension ref="A1:BN98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1"/>
+    <sheetView tabSelected="1" topLeftCell="AN19" workbookViewId="0">
+      <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="29" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.19921875" style="17" bestFit="1" customWidth="1"/>
@@ -5554,7 +5808,7 @@
     <col min="23" max="23" width="37.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="48.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="46.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="52.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="44.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="40.69921875" style="17" bestFit="1" customWidth="1"/>
@@ -5569,16 +5823,16 @@
     <col min="38" max="38" width="47" style="17" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="50" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="52" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="53.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="50" style="17" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="40.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="39.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="25" style="17" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="49.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21" style="17" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="51.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="40" style="17" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="23" style="17" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="44.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="34.296875" style="17" bestFit="1" customWidth="1"/>
@@ -5589,12 +5843,16 @@
     <col min="58" max="58" width="46.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="27" style="17" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="49.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="52.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="10.796875" style="17"/>
+    <col min="61" max="61" width="21" style="17" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="51.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="48.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="53.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="10.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="18">
+    <row r="1" spans="1:66" s="10" customFormat="1" ht="18">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
@@ -5656,25 +5914,25 @@
         <v>692</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>992</v>
+        <v>1137</v>
       </c>
       <c r="AR1" s="10" t="s">
         <v>734</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AV1" s="29" t="s">
-        <v>1068</v>
+        <v>1038</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>1036</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="AZ1" s="10" t="s">
         <v>738</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="BD1" s="10" t="s">
         <v>740</v>
@@ -5683,13 +5941,19 @@
         <v>748</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>993</v>
+        <v>1138</v>
       </c>
       <c r="BJ1" s="10" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62">
+        <v>992</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
@@ -5810,23 +6074,23 @@
       <c r="AN2" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="AO2" s="11" t="s">
-        <v>1014</v>
+      <c r="AO2" s="17" t="s">
+        <v>1069</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>1013</v>
+        <v>1068</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>736</v>
+        <v>1128</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="AS2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT2" s="18" t="s">
-        <v>144</v>
+        <v>1127</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>1068</v>
       </c>
       <c r="AU2" s="13" t="s">
         <v>404</v>
@@ -5867,17 +6131,29 @@
       <c r="BG2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BH2" s="28" t="s">
+      <c r="BH2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="BI2" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" ht="31.2">
+      <c r="BI2" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" ht="31.2">
       <c r="A3" s="11" t="s">
         <v>763</v>
       </c>
@@ -5998,23 +6274,23 @@
       <c r="AN3" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="AO3" s="18" t="s">
-        <v>852</v>
+      <c r="AO3" s="17" t="s">
+        <v>1061</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="AQ3" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="AS3" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>172</v>
+        <v>1060</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="AR3" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AT3" s="17" t="s">
+        <v>1088</v>
       </c>
       <c r="AU3" s="13" t="s">
         <v>477</v>
@@ -6058,19 +6334,31 @@
       <c r="BH3" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="BI3" s="17" t="s">
-        <v>996</v>
+      <c r="BI3" s="13" t="s">
+        <v>1002</v>
       </c>
       <c r="BJ3" s="17" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62">
+        <v>1001</v>
+      </c>
+      <c r="BK3" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="BL3" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="BM3" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BN3" s="17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66">
       <c r="A4" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1017</v>
+        <v>362</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>129</v>
@@ -6187,22 +6475,22 @@
         <v>518</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>848</v>
+        <v>1063</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="AQ4" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="AR4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT4" s="18" t="s">
-        <v>87</v>
+        <v>1062</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="AR4" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AT4" s="17" t="s">
+        <v>1090</v>
       </c>
       <c r="AU4" s="11" t="s">
         <v>737</v>
@@ -6246,19 +6534,31 @@
       <c r="BH4" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="BI4" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="BJ4" s="17" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" ht="31.2">
-      <c r="A5" s="11" t="s">
-        <v>1020</v>
+      <c r="BI4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK4" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="BL4" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="BM4" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BN4" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" ht="31.2">
+      <c r="A5" s="13" t="s">
+        <v>1002</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>185</v>
@@ -6374,23 +6674,23 @@
       <c r="AN5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AO5" s="13" t="s">
-        <v>846</v>
+      <c r="AO5" s="18" t="s">
+        <v>1065</v>
       </c>
       <c r="AP5" s="17" t="s">
-        <v>845</v>
+        <v>1064</v>
       </c>
       <c r="AQ5" s="18" t="s">
-        <v>948</v>
+        <v>887</v>
       </c>
       <c r="AR5" s="18" t="s">
-        <v>635</v>
+        <v>105</v>
       </c>
       <c r="AS5" s="18" t="s">
-        <v>938</v>
+        <v>143</v>
       </c>
       <c r="AT5" s="18" t="s">
-        <v>596</v>
+        <v>144</v>
       </c>
       <c r="AU5" s="11" t="s">
         <v>829</v>
@@ -6434,19 +6734,31 @@
       <c r="BH5" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="BI5" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BJ5" s="17" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" ht="31.2">
+      <c r="BI5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK5" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="BL5" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="BN5" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="31.2">
       <c r="A6" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>363</v>
+        <v>183</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>855</v>
@@ -6563,22 +6875,22 @@
         <v>635</v>
       </c>
       <c r="AO6" s="17" t="s">
-        <v>844</v>
+        <v>1067</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="AR6" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>55</v>
+        <v>1066</v>
+      </c>
+      <c r="AQ6" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="AS6" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="AT6" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="AU6" s="11" t="s">
         <v>971</v>
@@ -6622,19 +6934,31 @@
       <c r="BH6" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="BI6" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="BJ6" s="15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62">
-      <c r="A7" s="13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1007</v>
+      <c r="BI6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BK6" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="BL6" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" ht="31.2">
+      <c r="A7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>856</v>
@@ -6750,23 +7074,23 @@
       <c r="AN7" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="AO7" s="11" t="s">
-        <v>842</v>
+      <c r="AO7" s="17" t="s">
+        <v>1071</v>
       </c>
       <c r="AP7" s="17" t="s">
-        <v>841</v>
+        <v>1070</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="AS7" s="26" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AT7" s="27" t="s">
-        <v>661</v>
+        <v>695</v>
+      </c>
+      <c r="AS7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT7" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="AU7" s="11" t="s">
         <v>964</v>
@@ -6810,19 +7134,31 @@
       <c r="BH7" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="BI7" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="BJ7" s="17" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62">
+      <c r="BI7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="BJ7" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK7" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="BL7" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="BM7" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BN7" s="17" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66">
       <c r="A8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>184</v>
+        <v>240</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>857</v>
@@ -6932,17 +7268,23 @@
       <c r="AN8" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="AO8" s="13" t="s">
-        <v>781</v>
+      <c r="AO8" s="17" t="s">
+        <v>1073</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>780</v>
+        <v>1072</v>
       </c>
       <c r="AQ8" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AR8" s="17" t="s">
-        <v>701</v>
+        <v>699</v>
+      </c>
+      <c r="AS8" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="AT8" s="18" t="s">
+        <v>596</v>
       </c>
       <c r="AU8" s="11" t="s">
         <v>213</v>
@@ -6981,18 +7323,24 @@
         <v>766</v>
       </c>
       <c r="BI8" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="BJ8" s="17" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62">
+        <v>298</v>
+      </c>
+      <c r="BJ8" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK8" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="BL8" s="17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66">
       <c r="A9" s="11" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>324</v>
@@ -7102,17 +7450,17 @@
       <c r="AN9" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="AO9" s="11" t="s">
-        <v>783</v>
+      <c r="AO9" s="18" t="s">
+        <v>1075</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AW9" s="18" t="s">
         <v>422</v>
@@ -7121,7 +7469,7 @@
         <v>423</v>
       </c>
       <c r="AY9" s="18" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
       <c r="AZ9" s="18" t="s">
         <v>181</v>
@@ -7145,18 +7493,24 @@
         <v>180</v>
       </c>
       <c r="BI9" s="18" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="BJ9" s="17" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62">
+        <v>1009</v>
+      </c>
+      <c r="BK9" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66">
       <c r="A10" s="11" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>345</v>
@@ -7266,17 +7620,17 @@
       <c r="AN10" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="AO10" s="13" t="s">
-        <v>785</v>
+      <c r="AO10" s="18" t="s">
+        <v>1077</v>
       </c>
       <c r="AP10" s="17" t="s">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="AQ10" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AW10" s="18" t="s">
         <v>811</v>
@@ -7297,7 +7651,7 @@
         <v>140</v>
       </c>
       <c r="BC10" s="18" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
       <c r="BD10" s="18" t="s">
         <v>181</v>
@@ -7308,13 +7662,25 @@
       <c r="BH10" s="11" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="11" spans="1:62">
+      <c r="BI10" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="BJ10" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="BK10" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="BL10" s="18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66">
       <c r="A11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>271</v>
+        <v>1012</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1011</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>858</v>
@@ -7424,23 +7790,17 @@
       <c r="AN11" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>787</v>
+      <c r="AO11" s="17" t="s">
+        <v>1079</v>
       </c>
       <c r="AP11" s="17" t="s">
-        <v>786</v>
+        <v>1078</v>
       </c>
       <c r="AQ11" s="11" t="s">
-        <v>989</v>
+        <v>706</v>
       </c>
       <c r="AR11" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>560</v>
+        <v>705</v>
       </c>
       <c r="BC11" s="18" t="s">
         <v>984</v>
@@ -7455,12 +7815,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:66">
       <c r="A12" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>299</v>
+        <v>1014</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1013</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>386</v>
@@ -7570,13 +7930,25 @@
       <c r="AN12" s="17" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="13" spans="1:62">
+      <c r="AO12" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AP12" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="AR12" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66">
       <c r="A13" s="11" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>410</v>
@@ -7686,13 +8058,19 @@
       <c r="AN13" s="17" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="14" spans="1:62">
+      <c r="AO13" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AP13" s="17" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66">
       <c r="A14" s="11" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>777</v>
@@ -7784,6 +8162,12 @@
       <c r="AF14" s="11" t="s">
         <v>361</v>
       </c>
+      <c r="AG14" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>1062</v>
+      </c>
       <c r="AI14" s="11" t="s">
         <v>842</v>
       </c>
@@ -7796,13 +8180,19 @@
       <c r="AN14" s="17" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="15" spans="1:62">
+      <c r="AO14" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AP14" s="17" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66">
       <c r="A15" s="11" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>730</v>
@@ -7828,6 +8218,12 @@
       <c r="J15" s="11" t="s">
         <v>368</v>
       </c>
+      <c r="K15" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>1068</v>
+      </c>
       <c r="M15" s="11" t="s">
         <v>109</v>
       </c>
@@ -7840,6 +8236,12 @@
       <c r="P15" s="11" t="s">
         <v>372</v>
       </c>
+      <c r="Q15" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>1078</v>
+      </c>
       <c r="S15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7882,19 +8284,31 @@
       <c r="AF15" s="11" t="s">
         <v>383</v>
       </c>
+      <c r="AI15" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AJ15" s="17" t="s">
+        <v>1120</v>
+      </c>
       <c r="AM15" s="11" t="s">
         <v>761</v>
       </c>
       <c r="AN15" s="17" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="16" spans="1:62" ht="31.2">
+      <c r="AO15" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AP15" s="17" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" ht="31.2">
       <c r="A16" s="11" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>462</v>
@@ -7920,6 +8334,12 @@
       <c r="J16" s="11" t="s">
         <v>392</v>
       </c>
+      <c r="K16" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>1088</v>
+      </c>
       <c r="M16" s="11" t="s">
         <v>923</v>
       </c>
@@ -7974,13 +8394,25 @@
       <c r="AF16" s="11" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AM16" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AN16" s="26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AO16" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AP16" s="17" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>859</v>
@@ -8006,6 +8438,12 @@
       <c r="J17" s="11" t="s">
         <v>417</v>
       </c>
+      <c r="K17" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>1090</v>
+      </c>
       <c r="M17" s="11" t="s">
         <v>165</v>
       </c>
@@ -8060,13 +8498,25 @@
       <c r="AF17" s="11" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AM17" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AN17" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AO17" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AP17" s="17" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="11" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>117</v>
@@ -8092,6 +8542,12 @@
       <c r="J18" s="11" t="s">
         <v>437</v>
       </c>
+      <c r="K18" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>1112</v>
+      </c>
       <c r="M18" s="11" t="s">
         <v>924</v>
       </c>
@@ -8140,13 +8596,25 @@
       <c r="AF18" s="11" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AM18" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AN18" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AO18" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AP18" s="17" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="11" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>860</v>
@@ -8220,13 +8688,25 @@
       <c r="AF19" s="11" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AM19" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AN19" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AO19" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AP19" s="17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="11" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>861</v>
@@ -8283,10 +8763,10 @@
         <v>476</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AC20" s="13" t="s">
         <v>485</v>
@@ -8300,13 +8780,25 @@
       <c r="AF20" s="11" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AM20" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AN20" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AO20" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AP20" s="17" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="11" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>731</v>
@@ -8368,13 +8860,19 @@
       <c r="AF21" s="18" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AO21" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AP21" s="17" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>1039</v>
+        <v>71</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>862</v>
@@ -8430,13 +8928,19 @@
       <c r="AF22" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AO22" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AP22" s="17" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="11" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1041</v>
+        <v>100</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>534</v>
@@ -8486,13 +8990,19 @@
       <c r="AD23" s="12" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="A24" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>1043</v>
+      <c r="AO23" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AP23" s="17" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>863</v>
@@ -8542,13 +9052,19 @@
       <c r="AD24" s="11" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="A25" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>1045</v>
+      <c r="AO24" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AP24" s="17" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>344</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>864</v>
@@ -8598,13 +9114,19 @@
       <c r="AD25" s="16" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AO25" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AP25" s="17" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>1047</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>558</v>
@@ -8642,19 +9164,31 @@
       <c r="X26" s="18" t="s">
         <v>540</v>
       </c>
+      <c r="Y26" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z26" s="17" t="s">
+        <v>1068</v>
+      </c>
       <c r="AC26" s="18" t="s">
         <v>832</v>
       </c>
       <c r="AD26" s="18" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AO26" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AP26" s="17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>1049</v>
+        <v>384</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>563</v>
@@ -8692,19 +9226,31 @@
       <c r="X27" s="11" t="s">
         <v>548</v>
       </c>
+      <c r="Y27" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Z27" s="17" t="s">
+        <v>1072</v>
+      </c>
       <c r="AC27" s="18" t="s">
         <v>972</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AO27" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP27" s="17" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>1051</v>
+        <v>408</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>865</v>
@@ -8742,19 +9288,31 @@
       <c r="X28" s="17" t="s">
         <v>793</v>
       </c>
+      <c r="Y28" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Z28" s="17" t="s">
+        <v>1080</v>
+      </c>
       <c r="AC28" s="11" t="s">
         <v>556</v>
       </c>
       <c r="AD28" s="11" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
-      <c r="A29" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>1053</v>
+      <c r="AO28" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AP28" s="17" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>866</v>
@@ -8792,19 +9350,31 @@
       <c r="X29" s="17" t="s">
         <v>847</v>
       </c>
+      <c r="Y29" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Z29" s="17" t="s">
+        <v>1086</v>
+      </c>
       <c r="AC29" s="11" t="s">
         <v>830</v>
       </c>
       <c r="AD29" s="12" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" s="11" t="s">
-        <v>1056</v>
+      <c r="AO29" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AP29" s="26" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" s="13" t="s">
+        <v>998</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1055</v>
+        <v>997</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>573</v>
@@ -8836,19 +9406,31 @@
       <c r="V30" s="18" t="s">
         <v>561</v>
       </c>
+      <c r="Y30" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z30" s="17" t="s">
+        <v>1088</v>
+      </c>
       <c r="AC30" s="13" t="s">
         <v>567</v>
       </c>
       <c r="AD30" s="22" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AO30" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AP30" s="17" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>1057</v>
+        <v>157</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>820</v>
@@ -8880,19 +9462,31 @@
       <c r="V31" s="18" t="s">
         <v>85</v>
       </c>
+      <c r="Y31" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z31" s="17" t="s">
+        <v>1094</v>
+      </c>
       <c r="AC31" s="13" t="s">
         <v>29</v>
       </c>
       <c r="AD31" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AO31" s="18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AP31" s="17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="11" t="s">
-        <v>1060</v>
+        <v>1004</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1059</v>
+        <v>1003</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>867</v>
@@ -8924,19 +9518,31 @@
       <c r="V32" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="Y32" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Z32" s="17" t="s">
+        <v>1096</v>
+      </c>
       <c r="AC32" s="13" t="s">
         <v>991</v>
       </c>
       <c r="AD32" s="17" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="AO32" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AP32" s="17" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="31.2">
       <c r="A33" s="11" t="s">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1059</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>868</v>
@@ -8968,14 +9574,20 @@
       <c r="V33" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>1062</v>
-      </c>
+      <c r="Y33" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Z33" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AO33" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AP33" s="17" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="C34" s="18" t="s">
         <v>869</v>
       </c>
@@ -9000,14 +9612,20 @@
       <c r="V34" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y34" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Z34" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AO34" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AP34" s="17" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="C35" s="18" t="s">
         <v>870</v>
       </c>
@@ -9032,14 +9650,20 @@
       <c r="V35" s="18" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y35" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AO35" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AP35" s="17" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="C36" s="13" t="s">
         <v>57</v>
       </c>
@@ -9064,14 +9688,20 @@
       <c r="V36" s="18" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>323</v>
-      </c>
+      <c r="Y36" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Z36" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AO36" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AP36" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="C37" s="13" t="s">
         <v>529</v>
       </c>
@@ -9085,10 +9715,10 @@
         <v>554</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="U37" s="18" t="s">
         <v>893</v>
@@ -9096,14 +9726,20 @@
       <c r="V37" s="18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>344</v>
-      </c>
+      <c r="Y37" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AO37" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AP37" s="17" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="C38" s="13" t="s">
         <v>519</v>
       </c>
@@ -9117,10 +9753,10 @@
         <v>399</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="U38" s="18" t="s">
         <v>894</v>
@@ -9128,14 +9764,20 @@
       <c r="V38" s="18" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y38" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AO38" s="27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AP38" s="27" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="C39" s="13" t="s">
         <v>584</v>
       </c>
@@ -9149,10 +9791,10 @@
         <v>423</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>125</v>
@@ -9160,14 +9802,14 @@
       <c r="V39" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>385</v>
-      </c>
+      <c r="Y39" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Z39" s="17" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="C40" s="13" t="s">
         <v>871</v>
       </c>
@@ -9180,6 +9822,12 @@
       <c r="F40" s="18" t="s">
         <v>132</v>
       </c>
+      <c r="G40" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>993</v>
+      </c>
       <c r="U40" s="13" t="s">
         <v>580</v>
       </c>
@@ -9187,13 +9835,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>409</v>
-      </c>
+    <row r="41" spans="1:42">
       <c r="C41" s="13" t="s">
         <v>872</v>
       </c>
@@ -9206,6 +9848,12 @@
       <c r="F41" s="21" t="s">
         <v>586</v>
       </c>
+      <c r="G41" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>1060</v>
+      </c>
       <c r="U41" s="11" t="s">
         <v>179</v>
       </c>
@@ -9213,13 +9861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>49</v>
-      </c>
+    <row r="42" spans="1:42">
       <c r="C42" s="13" t="s">
         <v>873</v>
       </c>
@@ -9232,6 +9874,12 @@
       <c r="F42" s="21" t="s">
         <v>590</v>
       </c>
+      <c r="G42" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>1062</v>
+      </c>
       <c r="U42" s="18" t="s">
         <v>582</v>
       </c>
@@ -9239,13 +9887,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="13" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>1003</v>
-      </c>
+    <row r="43" spans="1:42">
       <c r="C43" s="13" t="s">
         <v>874</v>
       </c>
@@ -9258,6 +9900,12 @@
       <c r="F43" s="21" t="s">
         <v>594</v>
       </c>
+      <c r="G43" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>1068</v>
+      </c>
       <c r="U43" s="18" t="s">
         <v>946</v>
       </c>
@@ -9265,13 +9913,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>158</v>
-      </c>
+    <row r="44" spans="1:42">
       <c r="C44" s="13" t="s">
         <v>599</v>
       </c>
@@ -9284,6 +9926,12 @@
       <c r="F44" s="21" t="s">
         <v>161</v>
       </c>
+      <c r="G44" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>1074</v>
+      </c>
       <c r="U44" s="18" t="s">
         <v>200</v>
       </c>
@@ -9291,13 +9939,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>1009</v>
-      </c>
+    <row r="45" spans="1:42">
       <c r="C45" s="13" t="s">
         <v>604</v>
       </c>
@@ -9310,6 +9952,12 @@
       <c r="F45" s="21" t="s">
         <v>103</v>
       </c>
+      <c r="G45" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>1078</v>
+      </c>
       <c r="U45" s="18" t="s">
         <v>809</v>
       </c>
@@ -9317,13 +9965,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="11" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>1011</v>
-      </c>
+    <row r="46" spans="1:42">
       <c r="C46" s="13" t="s">
         <v>609</v>
       </c>
@@ -9336,6 +9978,12 @@
       <c r="F46" s="18" t="s">
         <v>602</v>
       </c>
+      <c r="G46" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>1112</v>
+      </c>
       <c r="U46" s="18" t="s">
         <v>796</v>
       </c>
@@ -9343,13 +9991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="11" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>1013</v>
-      </c>
+    <row r="47" spans="1:42">
       <c r="C47" s="13" t="s">
         <v>614</v>
       </c>
@@ -9362,6 +10004,12 @@
       <c r="F47" s="18" t="s">
         <v>607</v>
       </c>
+      <c r="G47" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>1118</v>
+      </c>
       <c r="U47" s="18" t="s">
         <v>810</v>
       </c>
@@ -9369,7 +10017,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:42">
       <c r="C48" s="13" t="s">
         <v>620</v>
       </c>
@@ -9381,6 +10029,12 @@
       </c>
       <c r="F48" s="18" t="s">
         <v>612</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>1131</v>
       </c>
       <c r="U48" s="18" t="s">
         <v>311</v>
@@ -9402,6 +10056,12 @@
       <c r="F49" s="18" t="s">
         <v>617</v>
       </c>
+      <c r="G49" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>1007</v>
+      </c>
       <c r="U49" s="18" t="s">
         <v>811</v>
       </c>
@@ -9703,10 +10363,10 @@
         <v>668</v>
       </c>
       <c r="U64" s="11" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="V64" s="17" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="3:22">
@@ -9723,10 +10383,10 @@
         <v>555</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="V65" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="66" spans="3:22">
@@ -9742,6 +10402,12 @@
       <c r="F66" s="18" t="s">
         <v>673</v>
       </c>
+      <c r="U66" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V66" s="17" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="67" spans="3:22">
       <c r="C67" s="13" t="s">
@@ -9756,6 +10422,12 @@
       <c r="F67" s="18" t="s">
         <v>561</v>
       </c>
+      <c r="U67" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V67" s="17" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="68" spans="3:22">
       <c r="C68" s="13" t="s">
@@ -9770,6 +10442,12 @@
       <c r="F68" s="18" t="s">
         <v>678</v>
       </c>
+      <c r="U68" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V68" s="17" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="69" spans="3:22">
       <c r="C69" s="13" t="s">
@@ -9784,6 +10462,12 @@
       <c r="F69" s="18" t="s">
         <v>680</v>
       </c>
+      <c r="U69" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V69" s="17" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="70" spans="3:22" ht="31.2">
       <c r="C70" s="13" t="s">
@@ -9919,10 +10603,10 @@
         <v>780</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="80" spans="3:22">
@@ -9932,18 +10616,174 @@
       <c r="D80" s="17" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="81" spans="3:4">
+      <c r="E80" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
       <c r="C81" s="17" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>1005</v>
+        <v>999</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="E83" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="E84" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="E85" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="E86" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="E87" s="18" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="E88" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="E89" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="E90" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="E91" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="E92" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="E93" s="18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="E95" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="E96" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BH2" r:id="rId1"/>
+    <hyperlink ref="AN16" r:id="rId2"/>
+    <hyperlink ref="AP29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9957,71 +10797,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.296875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="13.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>992</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>993</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>734</v>
+      <c r="A4" s="9" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>1070</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
-        <v>1066</v>
+      <c r="A6" s="5" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>738</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>740</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>1068</v>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/war/WEB-INF/views/admin/ESets.xlsx
+++ b/war/WEB-INF/views/admin/ESets.xlsx
@@ -13,7 +13,7 @@
     <sheet name="channels_in_sets" sheetId="4" r:id="rId4"/>
     <sheet name="Recommended" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1142">
   <si>
     <t>Top Level Categories</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>http://www.youtube.com/user/sadienardini</t>
   </si>
   <si>
-    <t>http://www.youtube.com/user/AmericazGotTalents</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/user/DprydeMusic</t>
   </si>
   <si>
@@ -2731,9 +2728,6 @@
     <t>YAK Films</t>
   </si>
   <si>
-    <t>Americaz Got Talent</t>
-  </si>
-  <si>
     <t>VISO Trailers</t>
   </si>
   <si>
@@ -3430,9 +3424,6 @@
     <t>Celine Dion VEVO</t>
   </si>
   <si>
-    <t>Incubus VEVO</t>
-  </si>
-  <si>
     <t>Are You the Next Superstar?</t>
   </si>
   <si>
@@ -3448,14 +3439,23 @@
     <t>All your favorite talent show moments!</t>
   </si>
   <si>
-    <t>Farr From Home</t>
+    <t>http://www.youtube.com/user/OUlearn</t>
+  </si>
+  <si>
+    <t>The Open University</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/user/SecretMillionaires</t>
+  </si>
+  <si>
+    <t>Secret Millionaire's Club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3537,12 +3537,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3561,7 +3555,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="470">
+  <cellStyleXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4032,8 +4026,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4091,9 +4096,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="470">
+  <cellStyles count="481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4562,6 +4566,17 @@
     <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5046,7 +5061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15.6"/>
   <cols>
@@ -5060,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5068,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5076,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5084,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5092,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5100,7 +5117,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5108,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5116,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5124,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5132,7 +5149,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5140,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5148,7 +5165,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5156,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5164,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5172,7 +5189,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5180,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5188,7 +5205,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5196,7 +5213,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5204,119 +5221,119 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="15.6"/>
   <cols>
@@ -5418,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5443,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5466,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5485,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5504,7 +5523,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5523,7 +5542,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5535,13 +5554,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5557,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5573,7 +5592,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5588,7 +5607,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5603,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5618,7 +5637,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5633,7 +5652,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5705,7 +5724,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -5777,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN19" workbookViewId="0">
-      <selection activeCell="AO23" sqref="AO23"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -5790,10 +5809,10 @@
     <col min="5" max="5" width="30" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="52.19921875" style="17" bestFit="1" customWidth="1"/>
@@ -5803,7 +5822,7 @@
     <col min="18" max="18" width="45.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="45.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="37.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="48.69921875" style="17" bestFit="1" customWidth="1"/>
@@ -5828,7 +5847,7 @@
     <col min="43" max="43" width="19.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="50" style="17" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="39.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="25" style="17" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="49.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.19921875" style="17" bestFit="1" customWidth="1"/>
@@ -5837,7 +5856,7 @@
     <col min="52" max="52" width="44.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="34.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="46" style="17" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.5" style="17" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="46.5" style="17" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="46.19921875" style="17" bestFit="1" customWidth="1"/>
@@ -5847,7 +5866,7 @@
     <col min="62" max="62" width="51.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="48.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="53.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="67" max="16384" width="10.796875" style="17"/>
   </cols>
@@ -5911,46 +5930,46 @@
         <v>25</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AV1" s="10" t="s">
         <v>1036</v>
       </c>
+      <c r="AV1" s="9" t="s">
+        <v>1034</v>
+      </c>
       <c r="AX1" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BF1" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="BJ1" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="BN1" s="10" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="2" spans="1:66">
@@ -5961,19 +5980,19 @@
         <v>128</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>255</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>537</v>
@@ -5985,25 +6004,25 @@
         <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>40</v>
@@ -6021,7 +6040,7 @@
         <v>87</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>42</v>
@@ -6045,7 +6064,7 @@
         <v>405</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AF2" s="18" t="s">
         <v>507</v>
@@ -6069,28 +6088,28 @@
         <v>126</v>
       </c>
       <c r="AM2" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>1069</v>
+        <v>842</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>1141</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>1068</v>
+        <v>1140</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="AU2" s="13" t="s">
         <v>404</v>
@@ -6098,32 +6117,32 @@
       <c r="AV2" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="AW2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>244</v>
+      <c r="AW2" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>329</v>
       </c>
       <c r="BA2" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BB2" s="11" t="s">
         <v>81</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BD2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="BE2" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="BF2" s="18" t="s">
         <v>528</v>
@@ -6141,33 +6160,33 @@
         <v>363</v>
       </c>
       <c r="BK2" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="BL2" s="12" t="s">
         <v>131</v>
       </c>
       <c r="BM2" s="11" t="s">
-        <v>902</v>
+        <v>543</v>
       </c>
       <c r="BN2" s="11" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="31.2">
       <c r="A3" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>131</v>
@@ -6185,19 +6204,19 @@
         <v>55</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>56</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>59</v>
@@ -6221,19 +6240,19 @@
         <v>63</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="X3" s="13" t="s">
         <v>64</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Z3" s="15" t="s">
         <v>65</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AB3" s="23" t="s">
         <v>317</v>
@@ -6245,13 +6264,13 @@
         <v>67</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AF3" s="18" t="s">
         <v>68</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AH3" s="13" t="s">
         <v>69</v>
@@ -6263,30 +6282,30 @@
         <v>97</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AL3" s="11" t="s">
         <v>156</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>1061</v>
+        <v>734</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>1139</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AR3" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="AS3" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="AS3" s="11" t="s">
         <v>1089</v>
       </c>
       <c r="AT3" s="17" t="s">
@@ -6299,34 +6318,34 @@
         <v>478</v>
       </c>
       <c r="AW3" s="18" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="AX3" s="18" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="AY3" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>350</v>
       </c>
       <c r="BA3" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BB3" s="15" t="s">
         <v>112</v>
       </c>
       <c r="BC3" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="BD3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="BE3" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BF3" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BG3" s="13" t="s">
         <v>493</v>
@@ -6335,25 +6354,25 @@
         <v>494</v>
       </c>
       <c r="BI3" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BJ3" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BK3" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="BL3" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="BL3" s="18" t="s">
-        <v>617</v>
-      </c>
       <c r="BM3" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="BN3" s="17" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="31.2">
       <c r="A4" s="11" t="s">
         <v>362</v>
       </c>
@@ -6367,7 +6386,7 @@
         <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>104</v>
@@ -6385,7 +6404,7 @@
         <v>77</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>78</v>
@@ -6397,7 +6416,7 @@
         <v>80</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>81</v>
@@ -6427,7 +6446,7 @@
         <v>89</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="Z4" s="12" t="s">
         <v>90</v>
@@ -6439,7 +6458,7 @@
         <v>92</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>38</v>
@@ -6451,7 +6470,7 @@
         <v>94</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>95</v>
@@ -6469,49 +6488,49 @@
         <v>99</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AN4" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="AO4" s="11" t="s">
-        <v>1063</v>
+      <c r="AO4" s="17" t="s">
+        <v>1067</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="AR4" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>1091</v>
+        <v>1066</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS4" s="17" t="s">
+        <v>1067</v>
       </c>
       <c r="AT4" s="17" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="AU4" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AV4" s="12" t="s">
         <v>515</v>
       </c>
       <c r="AW4" s="18" t="s">
-        <v>200</v>
+        <v>809</v>
       </c>
       <c r="AX4" s="18" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="AY4" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>368</v>
       </c>
       <c r="BA4" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BB4" s="12" t="s">
         <v>39</v>
@@ -6523,7 +6542,7 @@
         <v>520</v>
       </c>
       <c r="BE4" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="BF4" s="18" t="s">
         <v>349</v>
@@ -6541,24 +6560,24 @@
         <v>184</v>
       </c>
       <c r="BK4" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="BL4" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="BL4" s="18" t="s">
-        <v>612</v>
-      </c>
       <c r="BM4" s="18" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="BN4" s="17" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="31.2">
       <c r="A5" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>185</v>
@@ -6567,13 +6586,13 @@
         <v>186</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>105</v>
@@ -6585,7 +6604,7 @@
         <v>107</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>108</v>
@@ -6597,13 +6616,13 @@
         <v>370</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>112</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>113</v>
@@ -6615,13 +6634,13 @@
         <v>115</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>172</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>95</v>
@@ -6645,13 +6664,13 @@
         <v>99</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>121</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AH5" s="11" t="s">
         <v>122</v>
@@ -6663,28 +6682,28 @@
         <v>155</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AL5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="AM5" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AN5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AO5" s="18" t="s">
-        <v>1065</v>
+      <c r="AO5" s="11" t="s">
+        <v>1061</v>
       </c>
       <c r="AP5" s="17" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AQ5" s="18" t="s">
-        <v>887</v>
+        <v>946</v>
       </c>
       <c r="AR5" s="18" t="s">
-        <v>105</v>
+        <v>634</v>
       </c>
       <c r="AS5" s="18" t="s">
         <v>143</v>
@@ -6693,16 +6712,16 @@
         <v>144</v>
       </c>
       <c r="AU5" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AV5" s="11" t="s">
         <v>525</v>
       </c>
       <c r="AW5" s="18" t="s">
-        <v>809</v>
+        <v>398</v>
       </c>
       <c r="AX5" s="18" t="s">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="AY5" s="11" t="s">
         <v>391</v>
@@ -6711,19 +6730,19 @@
         <v>392</v>
       </c>
       <c r="BA5" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="BB5" s="18" t="s">
         <v>428</v>
       </c>
       <c r="BC5" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BD5" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="BE5" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BF5" s="18" t="s">
         <v>537</v>
@@ -6741,16 +6760,16 @@
         <v>216</v>
       </c>
       <c r="BK5" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="BL5" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="BL5" s="18" t="s">
-        <v>602</v>
-      </c>
       <c r="BM5" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="BN5" s="17" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="31.2">
@@ -6761,19 +6780,19 @@
         <v>184</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>217</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>132</v>
@@ -6791,7 +6810,7 @@
         <v>136</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>393</v>
@@ -6803,7 +6822,7 @@
         <v>139</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>140</v>
@@ -6815,7 +6834,7 @@
         <v>142</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>41</v>
@@ -6839,7 +6858,7 @@
         <v>178</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>151</v>
@@ -6857,52 +6876,52 @@
         <v>115</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AJ6" s="16" t="s">
         <v>182</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AL6" s="12" t="s">
         <v>70</v>
       </c>
       <c r="AM6" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AN6" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="AO6" s="17" t="s">
-        <v>1067</v>
+        <v>634</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>1063</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AQ6" s="18" t="s">
-        <v>948</v>
-      </c>
-      <c r="AR6" s="18" t="s">
-        <v>635</v>
+        <v>1062</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>698</v>
       </c>
       <c r="AS6" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AT6" s="18" t="s">
         <v>172</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AV6" s="16" t="s">
         <v>533</v>
       </c>
       <c r="AW6" s="18" t="s">
-        <v>796</v>
+        <v>422</v>
       </c>
       <c r="AX6" s="18" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
       <c r="AY6" s="11" t="s">
         <v>416</v>
@@ -6917,22 +6936,22 @@
         <v>72</v>
       </c>
       <c r="BC6" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BD6" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BE6" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="BF6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="BG6" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="BH6" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="BI6" s="11" t="s">
         <v>240</v>
@@ -6941,19 +6960,19 @@
         <v>241</v>
       </c>
       <c r="BK6" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="BL6" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="BL6" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="BM6" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="BN6" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" ht="31.2">
+      <c r="BM6" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BN6" s="17" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66">
       <c r="A7" s="11" t="s">
         <v>215</v>
       </c>
@@ -6961,13 +6980,13 @@
         <v>216</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>242</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>159</v>
@@ -6985,7 +7004,7 @@
         <v>163</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>164</v>
@@ -7003,7 +7022,7 @@
         <v>168</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="R7" s="11" t="s">
         <v>169</v>
@@ -7015,7 +7034,7 @@
         <v>171</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V7" s="18" t="s">
         <v>116</v>
@@ -7045,7 +7064,7 @@
         <v>180</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AF7" s="18" t="s">
         <v>181</v>
@@ -7063,28 +7082,28 @@
         <v>214</v>
       </c>
       <c r="AK7" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>69</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AN7" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AP7" s="17" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AS7" s="18" t="s">
         <v>86</v>
@@ -7093,7 +7112,7 @@
         <v>87</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AV7" s="23" t="s">
         <v>317</v>
@@ -7102,7 +7121,7 @@
         <v>810</v>
       </c>
       <c r="AX7" s="18" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="AY7" s="11" t="s">
         <v>436</v>
@@ -7117,19 +7136,19 @@
         <v>395</v>
       </c>
       <c r="BC7" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="BD7" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="BE7" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="BF7" s="11" t="s">
         <v>78</v>
       </c>
       <c r="BG7" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="BH7" s="18" t="s">
         <v>428</v>
@@ -7141,16 +7160,10 @@
         <v>271</v>
       </c>
       <c r="BK7" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BL7" s="17" t="s">
-        <v>1122</v>
-      </c>
-      <c r="BM7" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="BN7" s="17" t="s">
-        <v>1070</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:66">
@@ -7161,7 +7174,7 @@
         <v>241</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>300</v>
@@ -7185,13 +7198,13 @@
         <v>192</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>193</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>438</v>
@@ -7203,7 +7216,7 @@
         <v>196</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>197</v>
@@ -7215,7 +7228,7 @@
         <v>199</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>405</v>
@@ -7245,7 +7258,7 @@
         <v>209</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AF8" s="18" t="s">
         <v>210</v>
@@ -7263,28 +7276,28 @@
         <v>239</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AN8" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO8" s="17" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="AQ8" s="11" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AR8" s="17" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="AS8" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AT8" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU8" s="11" t="s">
         <v>213</v>
@@ -7292,14 +7305,14 @@
       <c r="AV8" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AW8" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX8" s="18" t="s">
-        <v>399</v>
+      <c r="AW8" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX8" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="AY8" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AZ8" s="11" t="s">
         <v>451</v>
@@ -7311,16 +7324,16 @@
         <v>199</v>
       </c>
       <c r="BC8" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BD8" s="12" t="s">
         <v>434</v>
       </c>
       <c r="BG8" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BH8" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="BI8" s="11" t="s">
         <v>298</v>
@@ -7329,13 +7342,13 @@
         <v>299</v>
       </c>
       <c r="BK8" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BL8" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" ht="31.2">
       <c r="A9" s="11" t="s">
         <v>270</v>
       </c>
@@ -7349,13 +7362,13 @@
         <v>325</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>219</v>
@@ -7367,7 +7380,7 @@
         <v>221</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>222</v>
@@ -7385,7 +7398,7 @@
         <v>226</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>227</v>
@@ -7409,7 +7422,7 @@
         <v>514</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Z9" s="16" t="s">
         <v>232</v>
@@ -7427,7 +7440,7 @@
         <v>236</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AF9" s="18" t="s">
         <v>237</v>
@@ -7445,37 +7458,37 @@
         <v>269</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN9" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="AO9" s="18" t="s">
-        <v>1075</v>
+        <v>700</v>
+      </c>
+      <c r="AO9" s="17" t="s">
+        <v>1071</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="AW9" s="18" t="s">
-        <v>422</v>
+        <v>807</v>
       </c>
       <c r="AX9" s="18" t="s">
-        <v>423</v>
+        <v>172</v>
       </c>
       <c r="AY9" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AZ9" s="18" t="s">
         <v>181</v>
       </c>
       <c r="BA9" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="BB9" s="15" t="s">
         <v>113</v>
@@ -7493,16 +7506,16 @@
         <v>180</v>
       </c>
       <c r="BI9" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="BJ9" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="BK9" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="BL9" s="19" t="s">
         <v>640</v>
-      </c>
-      <c r="BL9" s="19" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:66">
@@ -7525,13 +7538,13 @@
         <v>244</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>245</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>246</v>
@@ -7567,10 +7580,10 @@
         <v>254</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W10" s="13" t="s">
         <v>256</v>
@@ -7609,34 +7622,34 @@
         <v>267</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AJ10" s="11" t="s">
         <v>297</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN10" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="AP10" s="17" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AQ10" s="11" t="s">
-        <v>704</v>
+        <v>987</v>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AW10" s="18" t="s">
-        <v>811</v>
+        <v>200</v>
       </c>
       <c r="AX10" s="18" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="AY10" s="11" t="s">
         <v>266</v>
@@ -7645,13 +7658,13 @@
         <v>267</v>
       </c>
       <c r="BA10" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="BB10" s="11" t="s">
         <v>140</v>
       </c>
       <c r="BC10" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="BD10" s="18" t="s">
         <v>181</v>
@@ -7663,27 +7676,27 @@
         <v>548</v>
       </c>
       <c r="BI10" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="BJ10" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BK10" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL10" s="18" t="s">
         <v>645</v>
-      </c>
-      <c r="BL10" s="18" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:66">
       <c r="A11" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>364</v>
@@ -7701,7 +7714,7 @@
         <v>275</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>276</v>
@@ -7737,10 +7750,10 @@
         <v>284</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W11" s="13" t="s">
         <v>286</v>
@@ -7761,7 +7774,7 @@
         <v>34</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>292</v>
@@ -7785,25 +7798,19 @@
         <v>321</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN11" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="AO11" s="17" t="s">
-        <v>1079</v>
+        <v>704</v>
+      </c>
+      <c r="AO11" s="18" t="s">
+        <v>1075</v>
       </c>
       <c r="AP11" s="17" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="AR11" s="17" t="s">
-        <v>705</v>
+        <v>1074</v>
       </c>
       <c r="BC11" s="18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="BD11" s="18" t="s">
         <v>497</v>
@@ -7817,10 +7824,10 @@
     </row>
     <row r="12" spans="1:66">
       <c r="A12" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>386</v>
@@ -7835,7 +7842,7 @@
         <v>302</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>37</v>
@@ -7847,13 +7854,13 @@
         <v>304</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>156</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>490</v>
@@ -7871,16 +7878,16 @@
         <v>310</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W12" s="11" t="s">
         <v>313</v>
@@ -7895,19 +7902,19 @@
         <v>316</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AB12" s="23" t="s">
         <v>341</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>318</v>
       </c>
       <c r="AE12" s="18" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AF12" s="18" t="s">
         <v>319</v>
@@ -7925,30 +7932,24 @@
         <v>199</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AN12" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AO12" s="17" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="AR12" s="17" t="s">
-        <v>707</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:66">
       <c r="A13" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>410</v>
@@ -7963,25 +7964,25 @@
         <v>327</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>328</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>329</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>330</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>503</v>
@@ -7993,7 +7994,7 @@
         <v>334</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>335</v>
@@ -8005,46 +8006,46 @@
         <v>374</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W13" s="13" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="X13" s="15" t="s">
         <v>339</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="Z13" s="12" t="s">
         <v>340</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AB13" s="12" t="s">
         <v>358</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AD13" s="12" t="s">
         <v>342</v>
       </c>
       <c r="AE13" s="18" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AF13" s="18" t="s">
         <v>343</v>
       </c>
       <c r="AG13" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AH13" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>33</v>
@@ -8053,27 +8054,27 @@
         <v>34</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AN13" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>1083</v>
+        <v>692</v>
+      </c>
+      <c r="AO13" s="17" t="s">
+        <v>1079</v>
       </c>
       <c r="AP13" s="17" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:66">
       <c r="A14" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>433</v>
@@ -8085,25 +8086,25 @@
         <v>348</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>350</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>351</v>
@@ -8115,7 +8116,7 @@
         <v>337</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>352</v>
@@ -8127,19 +8128,19 @@
         <v>397</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>355</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>356</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="Z14" s="12" t="s">
         <v>357</v>
@@ -8157,45 +8158,45 @@
         <v>360</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AF14" s="11" t="s">
         <v>361</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AJ14" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AN14" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="AO14" s="17" t="s">
-        <v>1087</v>
+        <v>757</v>
+      </c>
+      <c r="AO14" s="11" t="s">
+        <v>1081</v>
       </c>
       <c r="AP14" s="17" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:66">
       <c r="A15" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>448</v>
@@ -8207,22 +8208,22 @@
         <v>366</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>367</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>368</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>109</v>
@@ -8237,10 +8238,10 @@
         <v>372</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>33</v>
@@ -8249,7 +8250,7 @@
         <v>34</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V15" s="18" t="s">
         <v>375</v>
@@ -8261,7 +8262,7 @@
         <v>377</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Z15" s="12" t="s">
         <v>378</v>
@@ -8279,36 +8280,36 @@
         <v>382</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AF15" s="11" t="s">
         <v>383</v>
       </c>
       <c r="AI15" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AJ15" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AN15" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AO15" s="17" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AP15" s="17" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="31.2">
       <c r="A16" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>462</v>
@@ -8323,7 +8324,7 @@
         <v>389</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>390</v>
@@ -8335,13 +8336,13 @@
         <v>392</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>137</v>
@@ -8365,19 +8366,19 @@
         <v>399</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>400</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>401</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AB16" s="18" t="s">
         <v>428</v>
@@ -8395,27 +8396,27 @@
         <v>407</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AN16" s="26" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>1091</v>
+        <v>1055</v>
+      </c>
+      <c r="AO16" s="17" t="s">
+        <v>1087</v>
       </c>
       <c r="AP16" s="17" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>65</v>
@@ -8439,10 +8440,10 @@
         <v>417</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>165</v>
@@ -8457,10 +8458,10 @@
         <v>421</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U17" s="18" t="s">
         <v>422</v>
@@ -8487,7 +8488,7 @@
         <v>53</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AD17" s="15" t="s">
         <v>446</v>
@@ -8499,24 +8500,24 @@
         <v>432</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AN17" s="17" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AO17" s="17" t="s">
-        <v>1093</v>
+        <v>1080</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>1089</v>
       </c>
       <c r="AP17" s="17" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="18" spans="1:42">
       <c r="A18" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>117</v>
@@ -8525,13 +8526,13 @@
         <v>118</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>434</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>435</v>
@@ -8543,13 +8544,13 @@
         <v>437</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>194</v>
@@ -8560,6 +8561,12 @@
       <c r="P18" s="22" t="s">
         <v>440</v>
       </c>
+      <c r="S18" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>1058</v>
+      </c>
       <c r="U18" s="18" t="s">
         <v>160</v>
       </c>
@@ -8567,7 +8574,7 @@
         <v>161</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="X18" s="15" t="s">
         <v>441</v>
@@ -8585,39 +8592,39 @@
         <v>150</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>461</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AF18" s="11" t="s">
         <v>447</v>
       </c>
       <c r="AM18" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AN18" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AO18" s="17" t="s">
         <v>1091</v>
       </c>
-      <c r="AN18" s="17" t="s">
+      <c r="AP18" s="17" t="s">
         <v>1090</v>
-      </c>
-      <c r="AO18" s="17" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AP18" s="17" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="19" spans="1:42">
       <c r="A19" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>498</v>
@@ -8635,11 +8642,17 @@
         <v>199</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>451</v>
       </c>
+      <c r="K19" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>1140</v>
+      </c>
       <c r="M19" s="11" t="s">
         <v>223</v>
       </c>
@@ -8652,8 +8665,14 @@
       <c r="P19" s="11" t="s">
         <v>455</v>
       </c>
+      <c r="S19" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>1138</v>
+      </c>
       <c r="U19" s="18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="V19" s="21" t="s">
         <v>456</v>
@@ -8671,10 +8690,10 @@
         <v>460</v>
       </c>
       <c r="AA19" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AC19" s="13" t="s">
         <v>477</v>
@@ -8683,33 +8702,33 @@
         <v>478</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AF19" s="11" t="s">
         <v>479</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AN19" s="17" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AO19" s="17" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="AP19" s="17" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>508</v>
@@ -8721,13 +8740,13 @@
         <v>465</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>466</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>467</v>
@@ -8745,7 +8764,7 @@
         <v>471</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="V20" s="21" t="s">
         <v>472</v>
@@ -8763,10 +8782,10 @@
         <v>476</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AC20" s="13" t="s">
         <v>485</v>
@@ -8775,33 +8794,33 @@
         <v>486</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AF20" s="11" t="s">
         <v>487</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AN20" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AO20" s="17" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AP20" s="17" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>516</v>
@@ -8813,7 +8832,7 @@
         <v>489</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>428</v>
@@ -8825,10 +8844,10 @@
         <v>278</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U21" s="18" t="s">
         <v>102</v>
@@ -8843,28 +8862,28 @@
         <v>483</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="Z21" s="18" t="s">
         <v>484</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>496</v>
       </c>
       <c r="AE21" s="18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AF21" s="18" t="s">
         <v>497</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -8875,7 +8894,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>526</v>
@@ -8911,13 +8930,13 @@
         <v>494</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Z22" s="18" t="s">
         <v>495</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AD22" s="15" t="s">
         <v>506</v>
@@ -8929,10 +8948,10 @@
         <v>46</v>
       </c>
       <c r="AO22" s="17" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="AP22" s="17" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -8949,7 +8968,7 @@
         <v>535</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>509</v>
@@ -8967,7 +8986,7 @@
         <v>332</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V23" s="18" t="s">
         <v>219</v>
@@ -8985,16 +9004,16 @@
         <v>36</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AD23" s="12" t="s">
         <v>515</v>
       </c>
       <c r="AO23" s="17" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -9005,19 +9024,19 @@
         <v>323</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>542</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>517</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>510</v>
@@ -9029,7 +9048,7 @@
         <v>512</v>
       </c>
       <c r="U24" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V24" s="18" t="s">
         <v>513</v>
@@ -9041,45 +9060,45 @@
         <v>524</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AD24" s="11" t="s">
         <v>525</v>
       </c>
       <c r="AO24" s="17" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>344</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>550</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>527</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>518</v>
@@ -9103,22 +9122,22 @@
         <v>532</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Z25" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AD25" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="AO25" s="18" t="s">
-        <v>1117</v>
+      <c r="AO25" s="17" t="s">
+        <v>1113</v>
       </c>
       <c r="AP25" s="17" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -9135,13 +9154,13 @@
         <v>559</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>536</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>528</v>
@@ -9153,34 +9172,34 @@
         <v>530</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V26" s="18" t="s">
         <v>245</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X26" s="18" t="s">
         <v>540</v>
       </c>
       <c r="Y26" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AC26" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD26" s="18" t="s">
         <v>541</v>
       </c>
       <c r="AO26" s="18" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AP26" s="17" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -9191,13 +9210,13 @@
         <v>385</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>564</v>
-      </c>
       <c r="E27" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>116</v>
@@ -9209,13 +9228,13 @@
         <v>34</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>538</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V27" s="18" t="s">
         <v>539</v>
@@ -9227,22 +9246,22 @@
         <v>548</v>
       </c>
       <c r="Y27" s="17" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AC27" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="AO27" s="17" t="s">
-        <v>1121</v>
+      <c r="AO27" s="18" t="s">
+        <v>1117</v>
       </c>
       <c r="AP27" s="17" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -9253,10 +9272,10 @@
         <v>409</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>551</v>
@@ -9283,16 +9302,16 @@
         <v>546</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="X28" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z28" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AC28" s="11" t="s">
         <v>556</v>
@@ -9301,86 +9320,86 @@
         <v>557</v>
       </c>
       <c r="AO28" s="17" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="AP28" s="17" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>172</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>554</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U29" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V29" s="18" t="s">
         <v>555</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AC29" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AP29" s="26" t="s">
-        <v>1057</v>
+        <v>561</v>
+      </c>
+      <c r="AO29" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AP29" s="17" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>573</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>574</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>200</v>
@@ -9389,40 +9408,40 @@
         <v>201</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>902</v>
+        <v>564</v>
       </c>
       <c r="H30" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="V30" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="U30" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="V30" s="18" t="s">
-        <v>561</v>
-      </c>
       <c r="Y30" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AC30" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD30" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="AD30" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="AO30" s="18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AP30" s="17" t="s">
-        <v>1046</v>
+      <c r="AO30" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AP30" s="26" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -9433,22 +9452,22 @@
         <v>158</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>230</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>57</v>
@@ -9463,10 +9482,10 @@
         <v>85</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AC31" s="13" t="s">
         <v>29</v>
@@ -9475,42 +9494,42 @@
         <v>30</v>
       </c>
       <c r="AO31" s="18" t="s">
-        <v>1133</v>
+        <v>1057</v>
       </c>
       <c r="AP31" s="17" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:42">
       <c r="A32" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>285</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>571</v>
+        <v>705</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>704</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U32" s="11" t="s">
         <v>35</v>
@@ -9519,36 +9538,36 @@
         <v>36</v>
       </c>
       <c r="Y32" s="17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AD32" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO32" s="17" t="s">
-        <v>1050</v>
+        <v>988</v>
+      </c>
+      <c r="AO32" s="18" t="s">
+        <v>1131</v>
       </c>
       <c r="AP32" s="17" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" ht="31.2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>311</v>
@@ -9556,55 +9575,55 @@
       <c r="F33" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>705</v>
+      <c r="G33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>70</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AO33" s="18" t="s">
-        <v>1054</v>
+        <v>1096</v>
+      </c>
+      <c r="AO33" s="17" t="s">
+        <v>1048</v>
       </c>
       <c r="AP33" s="17" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="31.2">
       <c r="C34" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>338</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>32</v>
+        <v>746</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>745</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>98</v>
@@ -9613,54 +9632,54 @@
         <v>99</v>
       </c>
       <c r="Y34" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Z34" s="17" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AO34" s="18" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AP34" s="17" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" spans="1:42">
       <c r="C35" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>355</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="U35" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V35" s="18" t="s">
         <v>349</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AO35" s="18" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="AP35" s="17" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -9671,34 +9690,34 @@
         <v>58</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>846</v>
+      <c r="G36" s="11" t="s">
+        <v>1004</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>845</v>
+        <v>1003</v>
       </c>
       <c r="U36" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="V36" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AO36" s="18" t="s">
-        <v>1134</v>
+        <v>1039</v>
       </c>
       <c r="AP36" s="17" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -9721,22 +9740,22 @@
         <v>1005</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V37" s="18" t="s">
         <v>367</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AO37" s="18" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="AP37" s="17" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="38" spans="1:42">
@@ -9752,37 +9771,31 @@
       <c r="F38" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="18" t="s">
         <v>1008</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>1007</v>
       </c>
       <c r="U38" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V38" s="18" t="s">
         <v>390</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AO38" s="27" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AP38" s="27" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="39" spans="1:42">
       <c r="C39" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>584</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>585</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>422</v>
@@ -9790,11 +9803,11 @@
       <c r="F39" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>1010</v>
+      <c r="G39" s="17" t="s">
+        <v>992</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>125</v>
@@ -9803,52 +9816,52 @@
         <v>126</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="40" spans="1:42">
       <c r="C40" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>132</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>994</v>
+        <v>1059</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>993</v>
+        <v>1058</v>
       </c>
       <c r="U40" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="V40" s="15" t="s">
         <v>580</v>
-      </c>
-      <c r="V40" s="15" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:42">
       <c r="C41" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="G41" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>1061</v>
       </c>
       <c r="H41" s="17" t="s">
@@ -9863,62 +9876,62 @@
     </row>
     <row r="42" spans="1:42">
       <c r="C42" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>1063</v>
+      <c r="G42" s="17" t="s">
+        <v>1067</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="U42" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="V42" s="18" t="s">
         <v>582</v>
-      </c>
-      <c r="V42" s="18" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:42">
       <c r="C43" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E43" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>1069</v>
+      <c r="G43" s="18" t="s">
+        <v>1073</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="U43" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="V43" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:42">
       <c r="C44" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>599</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>600</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>160</v>
@@ -9926,11 +9939,11 @@
       <c r="F44" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>1075</v>
+      <c r="G44" s="17" t="s">
+        <v>1077</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="U44" s="18" t="s">
         <v>200</v>
@@ -9941,10 +9954,10 @@
     </row>
     <row r="45" spans="1:42">
       <c r="C45" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>604</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>605</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>102</v>
@@ -9953,13 +9966,13 @@
         <v>103</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V45" s="18" t="s">
         <v>230</v>
@@ -9967,25 +9980,25 @@
     </row>
     <row r="46" spans="1:42">
       <c r="C46" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>610</v>
-      </c>
       <c r="E46" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>1113</v>
+      <c r="G46" s="18" t="s">
+        <v>1117</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V46" s="18" t="s">
         <v>255</v>
@@ -9993,25 +10006,25 @@
     </row>
     <row r="47" spans="1:42">
       <c r="C47" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>615</v>
-      </c>
       <c r="E47" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>1119</v>
+      <c r="G47" s="17" t="s">
+        <v>1130</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V47" s="18" t="s">
         <v>285</v>
@@ -10019,22 +10032,22 @@
     </row>
     <row r="48" spans="1:42">
       <c r="C48" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>621</v>
-      </c>
       <c r="E48" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>1132</v>
+      <c r="G48" s="11" t="s">
+        <v>1006</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>1131</v>
+        <v>1005</v>
       </c>
       <c r="U48" s="18" t="s">
         <v>311</v>
@@ -10045,25 +10058,19 @@
     </row>
     <row r="49" spans="3:22">
       <c r="C49" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>627</v>
-      </c>
       <c r="E49" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>1007</v>
-      </c>
       <c r="U49" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V49" s="18" t="s">
         <v>338</v>
@@ -10071,59 +10078,59 @@
     </row>
     <row r="50" spans="3:22">
       <c r="C50" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>632</v>
-      </c>
       <c r="E50" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>623</v>
-      </c>
       <c r="U50" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="V50" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="3:22">
       <c r="C51" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E51" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>625</v>
-      </c>
       <c r="U51" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="V51" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="V51" s="14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="52" spans="3:22">
       <c r="C52" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>644</v>
-      </c>
       <c r="E52" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>629</v>
-      </c>
       <c r="U52" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V52" s="15" t="s">
         <v>518</v>
@@ -10131,19 +10138,19 @@
     </row>
     <row r="53" spans="3:22">
       <c r="C53" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>650</v>
-      </c>
       <c r="E53" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>634</v>
-      </c>
       <c r="U53" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V53" s="18" t="s">
         <v>537</v>
@@ -10151,67 +10158,67 @@
     </row>
     <row r="54" spans="3:22">
       <c r="C54" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>653</v>
-      </c>
       <c r="E54" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="F54" s="18" t="s">
-        <v>637</v>
-      </c>
       <c r="U54" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V54" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="3:22">
       <c r="C55" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>656</v>
-      </c>
       <c r="E55" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>641</v>
-      </c>
       <c r="U55" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="3:22">
       <c r="C56" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>660</v>
-      </c>
       <c r="E56" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>646</v>
-      </c>
       <c r="U56" s="18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="3:22">
       <c r="C57" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>28</v>
@@ -10223,98 +10230,98 @@
         <v>492</v>
       </c>
       <c r="U57" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="3:22">
       <c r="C58" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>513</v>
       </c>
       <c r="U58" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="V58" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="V58" s="18" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="59" spans="3:22">
       <c r="C59" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>666</v>
-      </c>
       <c r="E59" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>522</v>
       </c>
       <c r="U59" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="3:22">
       <c r="C60" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>670</v>
-      </c>
       <c r="E60" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V60" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="3:22">
       <c r="C61" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>672</v>
-      </c>
       <c r="E61" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>539</v>
       </c>
       <c r="U61" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V61" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="3:22">
       <c r="C62" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>545</v>
@@ -10323,192 +10330,192 @@
         <v>546</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="3:22">
       <c r="C63" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>676</v>
-      </c>
       <c r="E63" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>664</v>
-      </c>
       <c r="U63" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V63" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="3:22">
       <c r="C64" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>506</v>
       </c>
       <c r="E64" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>668</v>
-      </c>
       <c r="U64" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="V64" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="65" spans="3:22">
       <c r="C65" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>682</v>
-      </c>
       <c r="E65" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>555</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="V65" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="66" spans="3:22">
       <c r="C66" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="D66" s="15" t="s">
-        <v>685</v>
-      </c>
       <c r="E66" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="U66" s="17" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="V66" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67" spans="3:22">
       <c r="C67" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>687</v>
-      </c>
       <c r="E67" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="68" spans="3:22">
       <c r="C68" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E68" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>678</v>
-      </c>
       <c r="U68" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="69" spans="3:22">
       <c r="C69" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E69" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>680</v>
-      </c>
       <c r="U69" s="17" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="70" spans="3:22" ht="31.2">
       <c r="C70" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="71" spans="3:22">
       <c r="C71" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="3:22">
       <c r="C72" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="3:22">
@@ -10516,7 +10523,7 @@
         <v>62</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>29</v>
@@ -10533,257 +10540,257 @@
         <v>103</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="3:22">
       <c r="C75" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="3:22">
       <c r="C76" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="3:22">
       <c r="C77" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="78" spans="3:22">
       <c r="C78" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="79" spans="3:22">
       <c r="C79" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="80" spans="3:22">
       <c r="C80" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="82" spans="3:6">
       <c r="C82" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="83" spans="3:6">
       <c r="E83" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="84" spans="3:6">
       <c r="E84" s="18" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="85" spans="3:6">
       <c r="E85" s="18" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="E86" s="17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="87" spans="3:6">
       <c r="E87" s="18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="88" spans="3:6">
       <c r="E88" s="18" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="89" spans="3:6">
       <c r="E89" s="18" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="E90" s="18" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="E91" s="18" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="E92" s="18" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="E93" s="18" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="E94" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="95" spans="3:6">
       <c r="E95" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="96" spans="3:6">
       <c r="E96" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="97" spans="5:6">
       <c r="E97" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="98" spans="5:6">
       <c r="E98" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BH2" r:id="rId1"/>
     <hyperlink ref="AN16" r:id="rId2"/>
-    <hyperlink ref="AP29" r:id="rId3"/>
+    <hyperlink ref="AP30" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10799,7 +10806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -10811,72 +10818,71 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
